--- a/data/trans_orig/P0801-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P0801-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DCDC644-CA0F-49CB-A67E-5F6EA2AB86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C01EA15D-C3A9-400D-9A33-9B87DF1BA498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6F3D6A79-315C-4D16-9F9B-8909B0C12750}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A796F250-C430-481E-8F81-1B7EFCC0748D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="432">
   <si>
     <t>Población según limitación a hacer esfuerzos moderados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,16 +77,16 @@
     <t>76,4%</t>
   </si>
   <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
   </si>
   <si>
     <t>58,44%</t>
   </si>
   <si>
-    <t>55,94%</t>
+    <t>55,63%</t>
   </si>
   <si>
     <t>61,24%</t>
@@ -95,10 +95,10 @@
     <t>66,34%</t>
   </si>
   <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
   </si>
   <si>
     <t>SI, LIMITA UN POCO</t>
@@ -110,25 +110,25 @@
     <t>14,46%</t>
   </si>
   <si>
-    <t>18,95%</t>
+    <t>18,97%</t>
   </si>
   <si>
     <t>30,35%</t>
   </si>
   <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
   </si>
   <si>
     <t>24,32%</t>
   </si>
   <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
   </si>
   <si>
     <t>SI, LIMITA MUCHO</t>
@@ -137,1129 +137,1135 @@
     <t>6,97%</t>
   </si>
   <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
   </si>
   <si>
     <t>83,69%</t>
   </si>
   <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
+    <t>85,34%</t>
   </si>
   <si>
     <t>78,06%</t>
@@ -1268,67 +1274,67 @@
     <t>76,77%</t>
   </si>
   <si>
-    <t>80,43%</t>
+    <t>80,2%</t>
   </si>
   <si>
     <t>80,71%</t>
   </si>
   <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
   </si>
   <si>
     <t>11,82%</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
   </si>
   <si>
     <t>14,15%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
   </si>
   <si>
     <t>13,05%</t>
   </si>
   <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
   </si>
   <si>
     <t>6,23%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
   </si>
 </sst>
 </file>
@@ -1740,7 +1746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52EEC81-B7DD-4936-BA6B-E16BBE0656A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1789D7-78B7-4AEC-BFEA-CC2660AC3CF2}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2509,7 +2515,7 @@
         <v>5437</v>
       </c>
       <c r="N16" s="7">
-        <v>5565961</v>
+        <v>5565962</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>103</v>
@@ -2617,10 +2623,10 @@
         <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,7 +2668,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2676,7 +2682,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2695,7 +2701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071155CC-8E90-4414-B2DC-8A0F9AA61176}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FF6950-E644-4F81-8E79-4E2ED4403BEE}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2712,7 +2718,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2819,13 +2825,13 @@
         <v>665448</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>641</v>
@@ -2834,13 +2840,13 @@
         <v>689265</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>1268</v>
@@ -2849,13 +2855,13 @@
         <v>1354714</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2876,13 @@
         <v>187236</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>369</v>
@@ -2885,13 +2891,13 @@
         <v>393953</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>542</v>
@@ -2900,13 +2906,13 @@
         <v>581190</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,13 +2927,13 @@
         <v>121959</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H6" s="7">
         <v>237</v>
@@ -2936,13 +2942,13 @@
         <v>254577</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M6" s="7">
         <v>345</v>
@@ -2951,13 +2957,13 @@
         <v>376537</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +3031,13 @@
         <v>1807819</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>1449</v>
@@ -3040,13 +3046,13 @@
         <v>1547239</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>3163</v>
@@ -3055,13 +3061,13 @@
         <v>3355057</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,10 +3082,10 @@
         <v>118586</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>163</v>
@@ -3133,7 +3139,7 @@
         <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -3142,13 +3148,13 @@
         <v>58491</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -3157,13 +3163,13 @@
         <v>96043</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,13 +3237,13 @@
         <v>445853</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H12" s="7">
         <v>377</v>
@@ -3246,13 +3252,13 @@
         <v>419434</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M12" s="7">
         <v>786</v>
@@ -3261,13 +3267,13 @@
         <v>865287</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3288,13 @@
         <v>28086</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -3509,7 +3515,7 @@
         <v>218</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>219</v>
       </c>
       <c r="M17" s="7">
         <v>837</v>
@@ -3518,13 +3524,13 @@
         <v>912892</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,13 +3545,13 @@
         <v>166753</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H18" s="7">
         <v>293</v>
@@ -3554,13 +3560,13 @@
         <v>319308</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M18" s="7">
         <v>442</v>
@@ -3572,7 +3578,7 @@
         <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>229</v>
@@ -3631,7 +3637,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3650,7 +3656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1999C6D-6657-42A9-B2B0-2D2C9D21F5E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AAE218-300F-4AFB-B629-533C1A997C00}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3897,7 +3903,7 @@
         <v>253</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="M6" s="7">
         <v>254</v>
@@ -3906,13 +3912,13 @@
         <v>280731</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3986,13 @@
         <v>1891268</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>161</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>1658</v>
@@ -3995,13 +4001,13 @@
         <v>1707628</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>3435</v>
@@ -4010,13 +4016,13 @@
         <v>3598897</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4037,13 @@
         <v>131945</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H9" s="7">
         <v>178</v>
@@ -4046,13 +4052,13 @@
         <v>199676</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M9" s="7">
         <v>303</v>
@@ -4061,13 +4067,13 @@
         <v>331621</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4088,13 @@
         <v>53172</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>116</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -4097,13 +4103,13 @@
         <v>80996</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M10" s="7">
         <v>122</v>
@@ -4112,13 +4118,13 @@
         <v>134168</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4192,13 @@
         <v>508967</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H12" s="7">
         <v>486</v>
@@ -4201,13 +4207,13 @@
         <v>503153</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M12" s="7">
         <v>955</v>
@@ -4216,13 +4222,13 @@
         <v>1012121</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>288</v>
+        <v>153</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4243,13 @@
         <v>27132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>165</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -4252,13 +4258,13 @@
         <v>27042</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>277</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -4267,13 +4273,13 @@
         <v>54174</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4294,13 @@
         <v>10787</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -4303,13 +4309,13 @@
         <v>18945</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -4318,13 +4324,13 @@
         <v>29732</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4398,13 @@
         <v>2907191</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H16" s="7">
         <v>2631</v>
@@ -4407,13 +4413,13 @@
         <v>2732073</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M16" s="7">
         <v>5378</v>
@@ -4422,13 +4428,13 @@
         <v>5639264</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4449,13 @@
         <v>324151</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>39</v>
       </c>
       <c r="H17" s="7">
         <v>443</v>
@@ -4458,13 +4464,13 @@
         <v>501672</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>762</v>
@@ -4473,13 +4479,13 @@
         <v>825824</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4500,13 @@
         <v>146276</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H18" s="7">
         <v>252</v>
@@ -4509,10 +4515,10 @@
         <v>298355</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>327</v>
+        <v>82</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>328</v>
@@ -4586,7 +4592,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4605,7 +4611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887D52F8-E59B-4CBA-896E-7255C7BCA827}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E000563-00C2-42CE-9D8B-C43D0F7041F2}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4798,10 +4804,10 @@
         <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>143</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>561</v>
@@ -4810,13 +4816,13 @@
         <v>354724</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4837,13 @@
         <v>74554</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H6" s="7">
         <v>361</v>
@@ -4846,13 +4852,13 @@
         <v>202725</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M6" s="7">
         <v>465</v>
@@ -4861,13 +4867,13 @@
         <v>277280</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,28 +4941,28 @@
         <v>1836742</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>2379</v>
       </c>
       <c r="I8" s="7">
-        <v>1927770</v>
+        <v>1927771</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>364</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>4077</v>
@@ -5004,10 +5010,10 @@
         <v>370</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M9" s="7">
         <v>638</v>
@@ -5016,13 +5022,13 @@
         <v>504545</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>227</v>
+        <v>374</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5043,13 @@
         <v>63774</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
@@ -5052,13 +5058,13 @@
         <v>78711</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>379</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M10" s="7">
         <v>198</v>
@@ -5067,13 +5073,13 @@
         <v>142485</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>382</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,7 +5106,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5141,13 +5147,13 @@
         <v>629568</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H12" s="7">
         <v>900</v>
@@ -5156,13 +5162,13 @@
         <v>652256</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M12" s="7">
         <v>1524</v>
@@ -5171,13 +5177,13 @@
         <v>1281825</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,13 +5198,13 @@
         <v>30250</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>391</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>81</v>
@@ -5207,13 +5213,13 @@
         <v>47238</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>120</v>
@@ -5222,13 +5228,13 @@
         <v>77489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5243,13 +5249,13 @@
         <v>13221</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -5258,13 +5264,13 @@
         <v>14392</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -5273,13 +5279,13 @@
         <v>27612</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5353,13 @@
         <v>2825995</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>405</v>
+        <v>212</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H16" s="7">
         <v>3919</v>
@@ -5362,28 +5368,28 @@
         <v>2965925</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M16" s="7">
         <v>6693</v>
       </c>
       <c r="N16" s="7">
-        <v>5791921</v>
+        <v>5791920</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,13 +5404,13 @@
         <v>399151</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H17" s="7">
         <v>920</v>
@@ -5413,13 +5419,13 @@
         <v>537606</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M17" s="7">
         <v>1319</v>
@@ -5428,13 +5434,13 @@
         <v>936757</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,13 +5455,13 @@
         <v>151549</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H18" s="7">
         <v>513</v>
@@ -5464,13 +5470,13 @@
         <v>295828</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M18" s="7">
         <v>704</v>
@@ -5479,13 +5485,13 @@
         <v>447377</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,7 +5503,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5527,7 +5533,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5541,7 +5547,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0801-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P0801-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C01EA15D-C3A9-400D-9A33-9B87DF1BA498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DD74176-02C6-4958-891C-A13E5469AA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A796F250-C430-481E-8F81-1B7EFCC0748D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2C6292C0-9062-467A-97D2-B108529868C9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="429">
   <si>
     <t>Población según limitación a hacer esfuerzos moderados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>76,4%</t>
   </si>
   <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
   </si>
   <si>
     <t>58,44%</t>
   </si>
   <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
   </si>
   <si>
     <t>66,34%</t>
   </si>
   <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
   </si>
   <si>
     <t>SI, LIMITA UN POCO</t>
@@ -107,28 +107,28 @@
     <t>16,63%</t>
   </si>
   <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
   </si>
   <si>
     <t>30,35%</t>
   </si>
   <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
   </si>
   <si>
     <t>24,32%</t>
   </si>
   <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
   </si>
   <si>
     <t>SI, LIMITA MUCHO</t>
@@ -137,28 +137,28 @@
     <t>6,97%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
   </si>
   <si>
     <t>100%</t>
@@ -170,73 +170,73 @@
     <t>94,38%</t>
   </si>
   <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>91,53%</t>
   </si>
   <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
   </si>
   <si>
     <t>4,38%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
   </si>
   <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
   </si>
   <si>
     <t>1,48%</t>
@@ -245,7 +245,7 @@
     <t>1,1%</t>
   </si>
   <si>
-    <t>1,89%</t>
+    <t>1,93%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -254,1017 +254,1011 @@
     <t>95,09%</t>
   </si>
   <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
   </si>
   <si>
     <t>90,96%</t>
   </si>
   <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
   <si>
     <t>93,17%</t>
   </si>
   <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
   </si>
   <si>
     <t>7,34%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
   </si>
   <si>
     <t>78,9%</t>
   </si>
   <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
     <t>85,34%</t>
   </si>
   <si>
@@ -1308,9 +1302,6 @@
   </si>
   <si>
     <t>12,08%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
   </si>
   <si>
     <t>3,92%</t>
@@ -1746,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1789D7-78B7-4AEC-BFEA-CC2660AC3CF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AF7738-6951-41F8-B031-6845EFB8228E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2073,7 +2064,7 @@
         <v>1554</v>
       </c>
       <c r="D8" s="7">
-        <v>1598220</v>
+        <v>1598221</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2226,7 +2217,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2402,10 +2393,10 @@
         <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -2414,13 +2405,13 @@
         <v>16695</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,16 +2476,16 @@
         <v>2838</v>
       </c>
       <c r="D16" s="7">
-        <v>2910780</v>
+        <v>2910779</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>2599</v>
@@ -2503,13 +2494,13 @@
         <v>2655183</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>5437</v>
@@ -2518,13 +2509,13 @@
         <v>5565962</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,13 +2530,13 @@
         <v>264201</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>524</v>
@@ -2554,13 +2545,13 @@
         <v>540972</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>796</v>
@@ -2569,13 +2560,13 @@
         <v>805173</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2581,13 @@
         <v>101563</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>174</v>
@@ -2605,13 +2596,13 @@
         <v>183044</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>278</v>
@@ -2620,13 +2611,13 @@
         <v>284606</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,7 +2629,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2682,7 +2673,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2701,7 +2692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FF6950-E644-4F81-8E79-4E2ED4403BEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762BF224-2AA7-4923-AEAE-110EC37A0AC6}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2718,7 +2709,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2825,13 +2816,13 @@
         <v>665448</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>641</v>
@@ -2840,13 +2831,13 @@
         <v>689265</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>1268</v>
@@ -2855,13 +2846,13 @@
         <v>1354714</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2867,13 @@
         <v>187236</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>369</v>
@@ -2891,13 +2882,13 @@
         <v>393953</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>542</v>
@@ -2906,13 +2897,13 @@
         <v>581190</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2918,13 @@
         <v>121959</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H6" s="7">
         <v>237</v>
@@ -2942,13 +2933,13 @@
         <v>254577</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M6" s="7">
         <v>345</v>
@@ -2957,13 +2948,13 @@
         <v>376537</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3022,13 @@
         <v>1807819</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>1449</v>
@@ -3046,13 +3037,13 @@
         <v>1547239</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>3163</v>
@@ -3061,13 +3052,13 @@
         <v>3355057</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3073,13 @@
         <v>118586</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H9" s="7">
         <v>136</v>
@@ -3097,13 +3088,13 @@
         <v>152074</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M9" s="7">
         <v>243</v>
@@ -3112,13 +3103,13 @@
         <v>270660</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,13 +3124,13 @@
         <v>37552</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -3148,13 +3139,13 @@
         <v>58491</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -3163,13 +3154,13 @@
         <v>96043</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3228,13 @@
         <v>445853</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H12" s="7">
         <v>377</v>
@@ -3252,13 +3243,13 @@
         <v>419434</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M12" s="7">
         <v>786</v>
@@ -3267,13 +3258,13 @@
         <v>865287</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3279,13 @@
         <v>28086</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -3345,7 +3336,7 @@
         <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -3354,13 +3345,13 @@
         <v>6240</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -3369,13 +3360,13 @@
         <v>13482</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3434,13 @@
         <v>2919121</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H16" s="7">
         <v>2467</v>
@@ -3458,13 +3449,13 @@
         <v>2655938</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M16" s="7">
         <v>5217</v>
@@ -3473,13 +3464,13 @@
         <v>5575059</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3485,13 @@
         <v>333909</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H17" s="7">
         <v>534</v>
@@ -3509,13 +3500,13 @@
         <v>578984</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M17" s="7">
         <v>837</v>
@@ -3524,13 +3515,13 @@
         <v>912892</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3536,13 @@
         <v>166753</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H18" s="7">
         <v>293</v>
@@ -3560,13 +3551,13 @@
         <v>319308</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M18" s="7">
         <v>442</v>
@@ -3578,10 +3569,10 @@
         <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>227</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,7 +3628,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3656,7 +3647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AAE218-300F-4AFB-B629-533C1A997C00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012E2539-8480-4890-A509-3ED9642FA323}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3673,7 +3664,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3780,13 +3771,13 @@
         <v>506955</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>487</v>
@@ -3795,13 +3786,13 @@
         <v>521292</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>988</v>
@@ -3810,13 +3801,13 @@
         <v>1028247</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3822,13 @@
         <v>165075</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>240</v>
@@ -3846,13 +3837,13 @@
         <v>274954</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>412</v>
@@ -3861,13 +3852,13 @@
         <v>440029</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3873,13 @@
         <v>82317</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H6" s="7">
         <v>165</v>
@@ -3897,13 +3888,13 @@
         <v>198414</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M6" s="7">
         <v>254</v>
@@ -3912,13 +3903,13 @@
         <v>280731</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3977,13 @@
         <v>1891268</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>1658</v>
@@ -4001,13 +3992,13 @@
         <v>1707628</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>3435</v>
@@ -4016,13 +4007,13 @@
         <v>3598897</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4028,13 @@
         <v>131945</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H9" s="7">
         <v>178</v>
@@ -4052,13 +4043,13 @@
         <v>199676</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M9" s="7">
         <v>303</v>
@@ -4067,13 +4058,13 @@
         <v>331621</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4079,13 @@
         <v>53172</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -4103,13 +4094,13 @@
         <v>80996</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M10" s="7">
         <v>122</v>
@@ -4118,13 +4109,13 @@
         <v>134168</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4183,13 @@
         <v>508967</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H12" s="7">
         <v>486</v>
@@ -4207,13 +4198,13 @@
         <v>503153</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M12" s="7">
         <v>955</v>
@@ -4222,10 +4213,10 @@
         <v>1012121</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>290</v>
@@ -4261,10 +4252,10 @@
         <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -4273,7 +4264,7 @@
         <v>54174</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>296</v>
+        <v>191</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>297</v>
@@ -4300,7 +4291,7 @@
         <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -4309,13 +4300,13 @@
         <v>18945</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -4324,13 +4315,13 @@
         <v>29732</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,13 +4389,13 @@
         <v>2907191</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H16" s="7">
         <v>2631</v>
@@ -4413,13 +4404,13 @@
         <v>2732073</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>5378</v>
@@ -4428,13 +4419,13 @@
         <v>5639264</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4440,13 @@
         <v>324151</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>39</v>
+        <v>319</v>
       </c>
       <c r="H17" s="7">
         <v>443</v>
@@ -4464,13 +4455,13 @@
         <v>501672</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M17" s="7">
         <v>762</v>
@@ -4479,13 +4470,13 @@
         <v>825824</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4491,13 @@
         <v>146276</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>324</v>
+        <v>174</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H18" s="7">
         <v>252</v>
@@ -4515,13 +4506,13 @@
         <v>298355</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>82</v>
+        <v>267</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M18" s="7">
         <v>401</v>
@@ -4530,13 +4521,13 @@
         <v>444630</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>329</v>
+        <v>59</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>330</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,7 +4583,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4611,7 +4602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E000563-00C2-42CE-9D8B-C43D0F7041F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC6D6FA-39AE-4C07-8794-C57FB3BF6089}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4628,7 +4619,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4735,13 +4726,13 @@
         <v>359685</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>640</v>
@@ -4750,13 +4741,13 @@
         <v>385898</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>1092</v>
@@ -4765,13 +4756,13 @@
         <v>745583</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>340</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4777,13 @@
         <v>107394</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>426</v>
@@ -4801,13 +4792,13 @@
         <v>247330</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>141</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M5" s="7">
         <v>561</v>
@@ -4816,13 +4807,13 @@
         <v>354724</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4828,13 @@
         <v>74554</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H6" s="7">
         <v>361</v>
@@ -4852,13 +4843,13 @@
         <v>202725</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M6" s="7">
         <v>465</v>
@@ -4867,13 +4858,13 @@
         <v>277280</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4932,13 @@
         <v>1836742</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>2379</v>
@@ -4956,13 +4947,13 @@
         <v>1927771</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>4077</v>
@@ -4971,13 +4962,13 @@
         <v>3764513</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +4983,13 @@
         <v>261506</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H9" s="7">
         <v>413</v>
@@ -5007,13 +4998,13 @@
         <v>243038</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M9" s="7">
         <v>638</v>
@@ -5022,13 +5013,13 @@
         <v>504545</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5034,13 @@
         <v>63774</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
@@ -5058,13 +5049,13 @@
         <v>78711</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M10" s="7">
         <v>198</v>
@@ -5073,13 +5064,13 @@
         <v>142485</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5138,13 @@
         <v>629568</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H12" s="7">
         <v>900</v>
@@ -5162,13 +5153,13 @@
         <v>652256</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>390</v>
+        <v>47</v>
       </c>
       <c r="M12" s="7">
         <v>1524</v>
@@ -5177,13 +5168,13 @@
         <v>1281825</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,13 +5189,13 @@
         <v>30250</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>81</v>
@@ -5213,13 +5204,13 @@
         <v>47238</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>120</v>
@@ -5228,10 +5219,10 @@
         <v>77489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>54</v>
@@ -5249,13 +5240,13 @@
         <v>13221</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>400</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -5264,13 +5255,13 @@
         <v>14392</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -5279,13 +5270,13 @@
         <v>27612</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5344,13 @@
         <v>2825995</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>212</v>
+        <v>405</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H16" s="7">
         <v>3919</v>
@@ -5368,13 +5359,13 @@
         <v>2965925</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M16" s="7">
         <v>6693</v>
@@ -5383,13 +5374,13 @@
         <v>5791920</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,13 +5395,13 @@
         <v>399151</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H17" s="7">
         <v>920</v>
@@ -5419,13 +5410,13 @@
         <v>537606</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M17" s="7">
         <v>1319</v>
@@ -5434,13 +5425,13 @@
         <v>936757</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>423</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,13 +5446,13 @@
         <v>151549</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H18" s="7">
         <v>513</v>
@@ -5470,13 +5461,13 @@
         <v>295828</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M18" s="7">
         <v>704</v>
@@ -5485,13 +5476,13 @@
         <v>447377</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,7 +5538,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0801-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P0801-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DD74176-02C6-4958-891C-A13E5469AA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01DB1461-55F5-4D1B-8FAB-D7FB13A9DAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2C6292C0-9062-467A-97D2-B108529868C9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{77053942-59A5-4FF9-A2D1-6CE68B28D8E7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="430">
   <si>
     <t>Población según limitación a hacer esfuerzos moderados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,94 +71,94 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>NO, NO LIMITA NADA</t>
+    <t>No, no limita nada</t>
   </si>
   <si>
     <t>76,4%</t>
   </si>
   <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
   </si>
   <si>
     <t>58,44%</t>
   </si>
   <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
   </si>
   <si>
     <t>66,34%</t>
   </si>
   <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>SI, LIMITA UN POCO</t>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>Sí, limita un poco</t>
   </si>
   <si>
     <t>16,63%</t>
   </si>
   <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
   </si>
   <si>
     <t>30,35%</t>
   </si>
   <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
   </si>
   <si>
     <t>24,32%</t>
   </si>
   <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>SI, LIMITA MUCHO</t>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>Sí, limita mucho</t>
   </si>
   <si>
     <t>6,97%</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
   </si>
   <si>
     <t>100%</t>
@@ -170,46 +170,46 @@
     <t>94,38%</t>
   </si>
   <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>91,53%</t>
   </si>
   <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>4,38%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
   </si>
   <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
   </si>
   <si>
     <t>5,52%</t>
@@ -218,1048 +218,1048 @@
     <t>4,83%</t>
   </si>
   <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
   </si>
   <si>
     <t>83,69%</t>
   </si>
   <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
   </si>
   <si>
     <t>78,06%</t>
@@ -1268,64 +1268,67 @@
     <t>76,77%</t>
   </si>
   <si>
-    <t>80,2%</t>
+    <t>80,43%</t>
   </si>
   <si>
     <t>80,71%</t>
   </si>
   <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
   </si>
   <si>
     <t>11,82%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
   </si>
   <si>
     <t>14,15%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>13,05%</t>
   </si>
   <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
   </si>
   <si>
     <t>6,23%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AF7738-6951-41F8-B031-6845EFB8228E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494F24A6-4181-4039-A940-9AB2BCF566ED}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2064,7 +2067,7 @@
         <v>1554</v>
       </c>
       <c r="D8" s="7">
-        <v>1598221</v>
+        <v>1598220</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2217,7 +2220,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2393,10 +2396,10 @@
         <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -2405,13 +2408,13 @@
         <v>16695</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,16 +2479,16 @@
         <v>2838</v>
       </c>
       <c r="D16" s="7">
-        <v>2910779</v>
+        <v>2910780</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>2599</v>
@@ -2494,28 +2497,28 @@
         <v>2655183</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>5437</v>
       </c>
       <c r="N16" s="7">
-        <v>5565962</v>
+        <v>5565961</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,13 +2533,13 @@
         <v>264201</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>524</v>
@@ -2545,13 +2548,13 @@
         <v>540972</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>796</v>
@@ -2560,13 +2563,13 @@
         <v>805173</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,13 +2584,13 @@
         <v>101563</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>174</v>
@@ -2596,13 +2599,13 @@
         <v>183044</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>278</v>
@@ -2611,13 +2614,13 @@
         <v>284606</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,7 +2632,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2659,7 +2662,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2673,7 +2676,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2692,7 +2695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762BF224-2AA7-4923-AEAE-110EC37A0AC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CDD3BD-F7D3-4CAF-BDEB-69F5B5054035}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2709,7 +2712,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2816,13 +2819,13 @@
         <v>665448</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>641</v>
@@ -2831,13 +2834,13 @@
         <v>689265</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>1268</v>
@@ -2846,13 +2849,13 @@
         <v>1354714</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,13 +2870,13 @@
         <v>187236</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>369</v>
@@ -2882,13 +2885,13 @@
         <v>393953</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>542</v>
@@ -2897,13 +2900,13 @@
         <v>581190</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2921,13 @@
         <v>121959</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H6" s="7">
         <v>237</v>
@@ -2933,13 +2936,13 @@
         <v>254577</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M6" s="7">
         <v>345</v>
@@ -2948,13 +2951,13 @@
         <v>376537</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3025,13 @@
         <v>1807819</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>1449</v>
@@ -3037,13 +3040,13 @@
         <v>1547239</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>3163</v>
@@ -3052,13 +3055,13 @@
         <v>3355057</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3076,13 @@
         <v>118586</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H9" s="7">
         <v>136</v>
@@ -3088,13 +3091,13 @@
         <v>152074</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M9" s="7">
         <v>243</v>
@@ -3103,13 +3106,13 @@
         <v>270660</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3127,13 @@
         <v>37552</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -3336,7 +3339,7 @@
         <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -3345,13 +3348,13 @@
         <v>6240</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -3360,13 +3363,13 @@
         <v>13482</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3437,13 @@
         <v>2919121</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H16" s="7">
         <v>2467</v>
@@ -3449,13 +3452,13 @@
         <v>2655938</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M16" s="7">
         <v>5217</v>
@@ -3464,13 +3467,13 @@
         <v>5575059</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3488,13 @@
         <v>333909</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H17" s="7">
         <v>534</v>
@@ -3500,13 +3503,13 @@
         <v>578984</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>217</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>837</v>
@@ -3515,13 +3518,13 @@
         <v>912892</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3539,13 @@
         <v>166753</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H18" s="7">
         <v>293</v>
@@ -3551,13 +3554,13 @@
         <v>319308</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M18" s="7">
         <v>442</v>
@@ -3569,10 +3572,10 @@
         <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,7 +3631,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3647,7 +3650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012E2539-8480-4890-A509-3ED9642FA323}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617B817C-FF48-479D-8975-353BA89C5471}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3664,7 +3667,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3771,13 +3774,13 @@
         <v>506955</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>487</v>
@@ -3786,13 +3789,13 @@
         <v>521292</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>988</v>
@@ -3801,13 +3804,13 @@
         <v>1028247</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,13 +3825,13 @@
         <v>165075</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>240</v>
@@ -3837,13 +3840,13 @@
         <v>274954</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>412</v>
@@ -3852,13 +3855,13 @@
         <v>440029</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3876,13 @@
         <v>82317</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H6" s="7">
         <v>165</v>
@@ -3888,13 +3891,13 @@
         <v>198414</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>253</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>254</v>
@@ -3977,13 +3980,13 @@
         <v>1891268</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>1658</v>
@@ -3992,13 +3995,13 @@
         <v>1707628</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>3435</v>
@@ -4007,13 +4010,13 @@
         <v>3598897</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,10 +4031,10 @@
         <v>131945</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>267</v>
@@ -4079,13 +4082,13 @@
         <v>53172</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>274</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -4094,13 +4097,13 @@
         <v>80996</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>122</v>
@@ -4109,13 +4112,13 @@
         <v>134168</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4186,13 @@
         <v>508967</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H12" s="7">
         <v>486</v>
@@ -4198,13 +4201,13 @@
         <v>503153</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M12" s="7">
         <v>955</v>
@@ -4213,13 +4216,13 @@
         <v>1012121</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4237,13 @@
         <v>27132</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>165</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -4249,13 +4252,13 @@
         <v>27042</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>295</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -4264,13 +4267,13 @@
         <v>54174</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4288,13 @@
         <v>10787</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>117</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -4300,13 +4303,13 @@
         <v>18945</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -4315,13 +4318,13 @@
         <v>29732</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4392,13 @@
         <v>2907191</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>2631</v>
@@ -4404,13 +4407,13 @@
         <v>2732073</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>5378</v>
@@ -4419,13 +4422,13 @@
         <v>5639264</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,13 +4443,13 @@
         <v>324151</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7">
         <v>443</v>
@@ -4455,13 +4458,13 @@
         <v>501672</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M17" s="7">
         <v>762</v>
@@ -4470,13 +4473,13 @@
         <v>825824</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,13 +4494,13 @@
         <v>146276</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>174</v>
+        <v>323</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H18" s="7">
         <v>252</v>
@@ -4506,13 +4509,13 @@
         <v>298355</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M18" s="7">
         <v>401</v>
@@ -4521,13 +4524,13 @@
         <v>444630</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>59</v>
+        <v>329</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>330</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,7 +4586,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4602,7 +4605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC6D6FA-39AE-4C07-8794-C57FB3BF6089}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CBB10E-E56C-44CB-9B38-206B34E34C8A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4619,7 +4622,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4726,13 +4729,13 @@
         <v>359685</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>640</v>
@@ -4741,13 +4744,13 @@
         <v>385898</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>1092</v>
@@ -4756,13 +4759,13 @@
         <v>745583</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4780,13 @@
         <v>107394</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>426</v>
@@ -4792,13 +4795,13 @@
         <v>247330</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M5" s="7">
         <v>561</v>
@@ -4807,13 +4810,13 @@
         <v>354724</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4831,13 @@
         <v>74554</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H6" s="7">
         <v>361</v>
@@ -4843,13 +4846,13 @@
         <v>202725</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M6" s="7">
         <v>465</v>
@@ -4858,13 +4861,13 @@
         <v>277280</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,28 +4935,28 @@
         <v>1836742</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>361</v>
       </c>
       <c r="H8" s="7">
         <v>2379</v>
       </c>
       <c r="I8" s="7">
-        <v>1927771</v>
+        <v>1927770</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>364</v>
       </c>
       <c r="M8" s="7">
         <v>4077</v>
@@ -4962,13 +4965,13 @@
         <v>3764513</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +4986,13 @@
         <v>261506</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H9" s="7">
         <v>413</v>
@@ -4998,13 +5001,13 @@
         <v>243038</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>367</v>
+        <v>250</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M9" s="7">
         <v>638</v>
@@ -5013,13 +5016,13 @@
         <v>504545</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>370</v>
+        <v>227</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5037,13 @@
         <v>63774</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
@@ -5049,13 +5052,13 @@
         <v>78711</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>375</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>198</v>
@@ -5064,7 +5067,7 @@
         <v>142485</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>378</v>
+        <v>177</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>379</v>
@@ -5097,7 +5100,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5159,7 +5162,7 @@
         <v>385</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>47</v>
+        <v>386</v>
       </c>
       <c r="M12" s="7">
         <v>1524</v>
@@ -5168,13 +5171,13 @@
         <v>1281825</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5192,13 @@
         <v>30250</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H13" s="7">
         <v>81</v>
@@ -5204,13 +5207,13 @@
         <v>47238</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M13" s="7">
         <v>120</v>
@@ -5219,13 +5222,13 @@
         <v>77489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>119</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,13 +5243,13 @@
         <v>13221</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -5255,13 +5258,13 @@
         <v>14392</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -5270,7 +5273,7 @@
         <v>27612</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>402</v>
@@ -5371,7 +5374,7 @@
         <v>6693</v>
       </c>
       <c r="N16" s="7">
-        <v>5791920</v>
+        <v>5791921</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>410</v>
@@ -5431,7 +5434,7 @@
         <v>420</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,13 +5449,13 @@
         <v>151549</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H18" s="7">
         <v>513</v>
@@ -5461,13 +5464,13 @@
         <v>295828</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M18" s="7">
         <v>704</v>
@@ -5476,13 +5479,13 @@
         <v>447377</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5494,7 +5497,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5524,7 +5527,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0801-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P0801-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01DB1461-55F5-4D1B-8FAB-D7FB13A9DAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D8EAB75-4AA2-4D4E-A679-6BC90178D81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{77053942-59A5-4FF9-A2D1-6CE68B28D8E7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BA55D67E-E26C-4A03-B295-2A8171148CB2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="429">
   <si>
     <t>Población según limitación a hacer esfuerzos moderados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -1040,295 +1040,292 @@
     <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
   </si>
   <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
   </si>
 </sst>
 </file>
@@ -1740,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494F24A6-4181-4039-A940-9AB2BCF566ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E2D1EF-587B-476C-8322-362BD2B36B85}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1891,7 +1888,7 @@
         <v>1546</v>
       </c>
       <c r="N4" s="7">
-        <v>1556816</v>
+        <v>1556815</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1942,7 +1939,7 @@
         <v>568</v>
       </c>
       <c r="N5" s="7">
-        <v>570681</v>
+        <v>570680</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2044,7 +2041,7 @@
         <v>2329</v>
       </c>
       <c r="N7" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2067,7 +2064,7 @@
         <v>1554</v>
       </c>
       <c r="D8" s="7">
-        <v>1598220</v>
+        <v>1598221</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2220,7 +2217,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2479,7 +2476,7 @@
         <v>2838</v>
       </c>
       <c r="D16" s="7">
-        <v>2910780</v>
+        <v>2910779</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>97</v>
@@ -2494,7 +2491,7 @@
         <v>2599</v>
       </c>
       <c r="I16" s="7">
-        <v>2655183</v>
+        <v>2655182</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>100</v>
@@ -2509,7 +2506,7 @@
         <v>5437</v>
       </c>
       <c r="N16" s="7">
-        <v>5565961</v>
+        <v>5565962</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>103</v>
@@ -2596,7 +2593,7 @@
         <v>174</v>
       </c>
       <c r="I18" s="7">
-        <v>183044</v>
+        <v>183043</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>118</v>
@@ -2632,7 +2629,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2647,7 +2644,7 @@
         <v>3297</v>
       </c>
       <c r="I19" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2662,7 +2659,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2695,7 +2692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CDD3BD-F7D3-4CAF-BDEB-69F5B5054035}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E357B834-0FB1-4E55-B85B-209EE1F93167}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2831,7 +2828,7 @@
         <v>641</v>
       </c>
       <c r="I4" s="7">
-        <v>689265</v>
+        <v>689266</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>129</v>
@@ -2882,7 +2879,7 @@
         <v>369</v>
       </c>
       <c r="I5" s="7">
-        <v>393953</v>
+        <v>393954</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>138</v>
@@ -2933,7 +2930,7 @@
         <v>237</v>
       </c>
       <c r="I6" s="7">
-        <v>254577</v>
+        <v>254578</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>147</v>
@@ -2984,7 +2981,7 @@
         <v>1247</v>
       </c>
       <c r="I7" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3258,7 +3255,7 @@
         <v>786</v>
       </c>
       <c r="N12" s="7">
-        <v>865287</v>
+        <v>865288</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>184</v>
@@ -3411,7 +3408,7 @@
         <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3650,7 +3647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617B817C-FF48-479D-8975-353BA89C5471}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C9F07B-5B0B-4A4D-A790-AB3C0EAC8F51}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4213,7 +4210,7 @@
         <v>955</v>
       </c>
       <c r="N12" s="7">
-        <v>1012121</v>
+        <v>1012122</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>287</v>
@@ -4366,7 +4363,7 @@
         <v>1027</v>
       </c>
       <c r="N15" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4605,7 +4602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CBB10E-E56C-44CB-9B38-206B34E34C8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04E537D-16E6-48EB-9F45-A01F918442F0}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4726,7 +4723,7 @@
         <v>452</v>
       </c>
       <c r="D4" s="7">
-        <v>359685</v>
+        <v>343479</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>333</v>
@@ -4741,7 +4738,7 @@
         <v>640</v>
       </c>
       <c r="I4" s="7">
-        <v>385898</v>
+        <v>351929</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>336</v>
@@ -4756,7 +4753,7 @@
         <v>1092</v>
       </c>
       <c r="N4" s="7">
-        <v>745583</v>
+        <v>695408</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>339</v>
@@ -4777,7 +4774,7 @@
         <v>135</v>
       </c>
       <c r="D5" s="7">
-        <v>107394</v>
+        <v>102302</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>342</v>
@@ -4792,31 +4789,31 @@
         <v>426</v>
       </c>
       <c r="I5" s="7">
-        <v>247330</v>
+        <v>222028</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>143</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>561</v>
       </c>
       <c r="N5" s="7">
-        <v>354724</v>
+        <v>324330</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>349</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,7 +4825,7 @@
         <v>104</v>
       </c>
       <c r="D6" s="7">
-        <v>74554</v>
+        <v>69157</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>350</v>
@@ -4843,7 +4840,7 @@
         <v>361</v>
       </c>
       <c r="I6" s="7">
-        <v>202725</v>
+        <v>181551</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>353</v>
@@ -4858,7 +4855,7 @@
         <v>465</v>
       </c>
       <c r="N6" s="7">
-        <v>277280</v>
+        <v>250707</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>356</v>
@@ -4879,7 +4876,7 @@
         <v>691</v>
       </c>
       <c r="D7" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4894,7 +4891,7 @@
         <v>1427</v>
       </c>
       <c r="I7" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4909,7 +4906,7 @@
         <v>2118</v>
       </c>
       <c r="N7" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4932,7 +4929,7 @@
         <v>1698</v>
       </c>
       <c r="D8" s="7">
-        <v>1836742</v>
+        <v>1786872</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>359</v>
@@ -4947,7 +4944,7 @@
         <v>2379</v>
       </c>
       <c r="I8" s="7">
-        <v>1927770</v>
+        <v>1944311</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>362</v>
@@ -4962,7 +4959,7 @@
         <v>4077</v>
       </c>
       <c r="N8" s="7">
-        <v>3764513</v>
+        <v>3731183</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>365</v>
@@ -4983,46 +4980,46 @@
         <v>225</v>
       </c>
       <c r="D9" s="7">
-        <v>261506</v>
+        <v>443643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>112</v>
+        <v>368</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H9" s="7">
         <v>413</v>
       </c>
       <c r="I9" s="7">
-        <v>243038</v>
+        <v>222152</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>250</v>
+        <v>372</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M9" s="7">
         <v>638</v>
       </c>
       <c r="N9" s="7">
-        <v>504545</v>
+        <v>665795</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>227</v>
+        <v>375</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,46 +5031,46 @@
         <v>69</v>
       </c>
       <c r="D10" s="7">
-        <v>63774</v>
+        <v>59812</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
       </c>
       <c r="I10" s="7">
-        <v>78711</v>
+        <v>71360</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>276</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M10" s="7">
         <v>198</v>
       </c>
       <c r="N10" s="7">
-        <v>142485</v>
+        <v>131172</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>382</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,7 +5082,7 @@
         <v>1992</v>
       </c>
       <c r="D11" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5100,7 +5097,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5115,7 +5112,7 @@
         <v>4913</v>
       </c>
       <c r="N11" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5138,46 +5135,46 @@
         <v>624</v>
       </c>
       <c r="D12" s="7">
-        <v>629568</v>
+        <v>605432</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H12" s="7">
         <v>900</v>
       </c>
       <c r="I12" s="7">
-        <v>652256</v>
+        <v>604253</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M12" s="7">
         <v>1524</v>
       </c>
       <c r="N12" s="7">
-        <v>1281825</v>
+        <v>1209685</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,46 +5186,46 @@
         <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>30250</v>
+        <v>28848</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>392</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>81</v>
       </c>
       <c r="I13" s="7">
-        <v>47238</v>
+        <v>43619</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>120</v>
       </c>
       <c r="N13" s="7">
-        <v>77489</v>
+        <v>72467</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>119</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,46 +5237,46 @@
         <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>13221</v>
+        <v>12344</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
       </c>
       <c r="I14" s="7">
-        <v>14392</v>
+        <v>12590</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
       </c>
       <c r="N14" s="7">
-        <v>27612</v>
+        <v>24934</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>402</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,7 +5288,7 @@
         <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5306,7 +5303,7 @@
         <v>1004</v>
       </c>
       <c r="I15" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5321,7 +5318,7 @@
         <v>1685</v>
       </c>
       <c r="N15" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5344,7 +5341,7 @@
         <v>2774</v>
       </c>
       <c r="D16" s="7">
-        <v>2825995</v>
+        <v>2735784</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>404</v>
@@ -5359,7 +5356,7 @@
         <v>3919</v>
       </c>
       <c r="I16" s="7">
-        <v>2965925</v>
+        <v>2900493</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>407</v>
@@ -5374,7 +5371,7 @@
         <v>6693</v>
       </c>
       <c r="N16" s="7">
-        <v>5791921</v>
+        <v>5636277</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>410</v>
@@ -5395,46 +5392,46 @@
         <v>399</v>
       </c>
       <c r="D17" s="7">
-        <v>399151</v>
+        <v>574793</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>920</v>
       </c>
       <c r="I17" s="7">
-        <v>537606</v>
+        <v>487800</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="M17" s="7">
         <v>1319</v>
       </c>
       <c r="N17" s="7">
-        <v>936757</v>
+        <v>1062592</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,10 +5443,10 @@
         <v>191</v>
       </c>
       <c r="D18" s="7">
-        <v>151549</v>
+        <v>141313</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>422</v>
@@ -5461,31 +5458,31 @@
         <v>513</v>
       </c>
       <c r="I18" s="7">
-        <v>295828</v>
+        <v>265501</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M18" s="7">
         <v>704</v>
       </c>
       <c r="N18" s="7">
-        <v>447377</v>
+        <v>406814</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,7 +5494,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5512,7 +5509,7 @@
         <v>5352</v>
       </c>
       <c r="I19" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5527,7 +5524,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
